--- a/Analysis/Comp_comb_coupe.xlsx
+++ b/Analysis/Comp_comb_coupe.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6906,7 +6906,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11056,7 +11056,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -11219,7 +11219,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -13592,7 +13592,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -13758,7 +13758,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -14090,7 +14090,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -14256,7 +14256,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -14339,7 +14339,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -14422,7 +14422,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -14505,7 +14505,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -14754,7 +14754,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -15501,7 +15501,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -15667,7 +15667,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -15999,7 +15999,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -16165,7 +16165,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -16248,7 +16248,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -16341,7 +16341,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Hyrax</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -16424,7 +16424,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Hyrax</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Hyrax</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -16673,7 +16673,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -16746,7 +16746,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -16756,7 +16756,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -16912,7 +16912,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -16922,7 +16922,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -17078,7 +17078,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -17088,7 +17088,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -17244,7 +17244,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -17327,7 +17327,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -17337,7 +17337,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -17410,7 +17410,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -17420,7 +17420,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -17576,7 +17576,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -17659,7 +17659,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -17669,7 +17669,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -17742,7 +17742,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -17825,7 +17825,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -17835,7 +17835,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -17908,7 +17908,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -18074,7 +18074,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -18157,7 +18157,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -18240,7 +18240,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -18406,7 +18406,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -18489,7 +18489,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -18738,7 +18738,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -18821,7 +18821,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -18987,7 +18987,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -19070,7 +19070,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -19319,7 +19319,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -19402,7 +19402,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -19485,7 +19485,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -19734,7 +19734,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -19983,7 +19983,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -20066,7 +20066,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -20149,7 +20149,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -20315,7 +20315,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -20398,7 +20398,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -20481,7 +20481,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -20491,7 +20491,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -20564,7 +20564,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -20574,7 +20574,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -21321,7 +21321,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -21404,7 +21404,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -21487,7 +21487,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -21570,7 +21570,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -22068,7 +22068,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -22151,7 +22151,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -22234,7 +22234,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -22317,7 +22317,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -22566,7 +22566,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -22649,7 +22649,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -22815,7 +22815,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -22898,7 +22898,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -22981,7 +22981,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -23147,7 +23147,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -23313,7 +23313,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -23396,7 +23396,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -23479,7 +23479,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -28615,7 +28615,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -28671,19 +28671,19 @@
         <v>20</v>
       </c>
       <c r="O341">
-        <v>0.7488888888888888</v>
+        <v>1.092695111640021</v>
       </c>
       <c r="P341">
-        <v>0.3776470361999649</v>
+        <v>1.570822955990177</v>
       </c>
       <c r="Q341">
         <v>25</v>
       </c>
       <c r="R341">
-        <v>0.5155555555555555</v>
+        <v>0.062242308877221</v>
       </c>
       <c r="S341">
-        <v>0.8888888888888891</v>
+        <v>1.701349219005892</v>
       </c>
       <c r="T341" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -28771,19 +28771,19 @@
         <v>20</v>
       </c>
       <c r="O342">
-        <v>0.92</v>
+        <v>2.442347035369205</v>
       </c>
       <c r="P342">
-        <v>0.1788854381999834</v>
+        <v>2.558358707328259</v>
       </c>
       <c r="Q342">
         <v>25</v>
       </c>
       <c r="R342">
-        <v>0.48</v>
+        <v>-0.0800427076735365</v>
       </c>
       <c r="S342">
-        <v>0.8222222222222225</v>
+        <v>1.645543227438304</v>
       </c>
       <c r="T342" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -28871,19 +28871,19 @@
         <v>20</v>
       </c>
       <c r="O343">
-        <v>0.7644444444444444</v>
+        <v>1.177202563261331</v>
       </c>
       <c r="P343">
-        <v>0.1590092783999851</v>
+        <v>1.561759187485682</v>
       </c>
       <c r="Q343">
         <v>25</v>
       </c>
       <c r="R343">
-        <v>0.002222222222222348</v>
+        <v>-6.107022887742198</v>
       </c>
       <c r="S343">
-        <v>0.06666666666666669</v>
+        <v>1.732052233131518</v>
       </c>
       <c r="T343" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -28925,7 +28925,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -28971,19 +28971,19 @@
         <v>9</v>
       </c>
       <c r="O344">
-        <v>0.3878667628667628</v>
+        <v>-0.4562880805749543</v>
       </c>
       <c r="P344">
-        <v>0.3184345579963415</v>
+        <v>1.199379927594301</v>
       </c>
       <c r="Q344">
         <v>9</v>
       </c>
       <c r="R344">
-        <v>0.5359477124183006</v>
+        <v>0.1440393702229377</v>
       </c>
       <c r="S344">
-        <v>0.3709746699507167</v>
+        <v>1.2883243379333</v>
       </c>
       <c r="T344" t="inlineStr">
         <is>
@@ -29015,7 +29015,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Electric fence</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -29025,7 +29025,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -29071,19 +29071,19 @@
         <v>9</v>
       </c>
       <c r="O345">
-        <v>0.4552910052910052</v>
+        <v>-0.1793149108162501</v>
       </c>
       <c r="P345">
-        <v>0.2719235716582534</v>
+        <v>1.19327372312789</v>
       </c>
       <c r="Q345">
         <v>9</v>
       </c>
       <c r="R345">
-        <v>0.5045129162776222</v>
+        <v>0.0180521553313479</v>
       </c>
       <c r="S345">
-        <v>0.3582244413485134</v>
+        <v>1.263247900405993</v>
       </c>
       <c r="T345" t="inlineStr">
         <is>
@@ -29171,19 +29171,19 @@
         <v>24</v>
       </c>
       <c r="O346">
-        <v>15.3</v>
+        <v>-1.711262773259619</v>
       </c>
       <c r="P346">
-        <v>30.86357075906804</v>
+        <v>7.890154202616859</v>
       </c>
       <c r="Q346">
         <v>24</v>
       </c>
       <c r="R346">
-        <v>21.5</v>
+        <v>-1.295045689654746</v>
       </c>
       <c r="S346">
-        <v>35.7625502446344</v>
+        <v>7.712609390227587</v>
       </c>
       <c r="T346" t="inlineStr">
         <is>
@@ -29271,19 +29271,19 @@
         <v>24</v>
       </c>
       <c r="O347">
-        <v>20.9</v>
+        <v>-1.330963715802843</v>
       </c>
       <c r="P347">
-        <v>35.27265229607777</v>
+        <v>7.715367264424839</v>
       </c>
       <c r="Q347">
         <v>24</v>
       </c>
       <c r="R347">
-        <v>16.6</v>
+        <v>-1.614245614002203</v>
       </c>
       <c r="S347">
-        <v>32.33326460473795</v>
+        <v>7.935658199662448</v>
       </c>
       <c r="T347" t="inlineStr">
         <is>
@@ -29325,7 +29325,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -29371,19 +29371,19 @@
         <v>24</v>
       </c>
       <c r="O348">
-        <v>18.7</v>
+        <v>-1.469622492693224</v>
       </c>
       <c r="P348">
-        <v>32.82316255329459</v>
+        <v>7.590122946809769</v>
       </c>
       <c r="Q348">
         <v>24</v>
       </c>
       <c r="R348">
-        <v>1.4</v>
+        <v>-4.254599024987377</v>
       </c>
       <c r="S348">
-        <v>6.858571279792898</v>
+        <v>5.705991003614826</v>
       </c>
       <c r="T348" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Deer, hare</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -29471,19 +29471,19 @@
         <v>24</v>
       </c>
       <c r="O349">
-        <v>3.8</v>
+        <v>-3.231428290939321</v>
       </c>
       <c r="P349">
-        <v>10.28785691968935</v>
+        <v>5.270505366380211</v>
       </c>
       <c r="Q349">
         <v>24</v>
       </c>
       <c r="R349">
-        <v>1.4</v>
+        <v>-4.254599024987377</v>
       </c>
       <c r="S349">
-        <v>6.858571279792898</v>
+        <v>5.705991003614826</v>
       </c>
       <c r="T349" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -29571,19 +29571,19 @@
         <v>80</v>
       </c>
       <c r="O350">
-        <v>12.87901234567901</v>
+        <v>-1.911698778772169</v>
       </c>
       <c r="P350">
-        <v>30.74179382399714</v>
+        <v>8.565840356424767</v>
       </c>
       <c r="Q350">
         <v>80</v>
       </c>
       <c r="R350">
-        <v>7.545679012345679</v>
+        <v>-2.505739612205224</v>
       </c>
       <c r="S350">
-        <v>27.91496220799735</v>
+        <v>10.16132371623697</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -29671,19 +29671,19 @@
         <v>80</v>
       </c>
       <c r="O351">
-        <v>5.807407407407408</v>
+        <v>-2.786207301680285</v>
       </c>
       <c r="P351">
-        <v>16.60763574399844</v>
+        <v>6.889328739262933</v>
       </c>
       <c r="Q351">
         <v>80</v>
       </c>
       <c r="R351">
-        <v>4.148148148148149</v>
+        <v>-3.140141784325697</v>
       </c>
       <c r="S351">
-        <v>15.90092783999851</v>
+        <v>7.803248024068404</v>
       </c>
       <c r="T351" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -29771,19 +29771,19 @@
         <v>80</v>
       </c>
       <c r="O352">
-        <v>1.501234567901237</v>
+        <v>-4.18375619955559</v>
       </c>
       <c r="P352">
-        <v>12.01403436799886</v>
+        <v>9.764625614704004</v>
       </c>
       <c r="Q352">
         <v>80</v>
       </c>
       <c r="R352">
-        <v>1.027160493827163</v>
+        <v>-4.568047270916954</v>
       </c>
       <c r="S352">
-        <v>9.540556703999098</v>
+        <v>8.393625208013788</v>
       </c>
       <c r="T352" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -29871,19 +29871,19 @@
         <v>80</v>
       </c>
       <c r="O353">
-        <v>1.935802469135805</v>
+        <v>-3.925100387803075</v>
       </c>
       <c r="P353">
-        <v>14.48751203199863</v>
+        <v>10.39520555968594</v>
       </c>
       <c r="Q353">
         <v>80</v>
       </c>
       <c r="R353">
-        <v>0.6320987654321013</v>
+        <v>-5.057538758932375</v>
       </c>
       <c r="S353">
-        <v>4.593601375999565</v>
+        <v>5.920146152008772</v>
       </c>
       <c r="T353" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -29971,19 +29971,19 @@
         <v>80</v>
       </c>
       <c r="O354">
-        <v>1.066666666666668</v>
+        <v>-4.529907701487543</v>
       </c>
       <c r="P354">
-        <v>3.886893471999637</v>
+        <v>2.627856549096128</v>
       </c>
       <c r="Q354">
         <v>80</v>
       </c>
       <c r="R354">
-        <v>0.3950617283950639</v>
+        <v>-5.52992499627437</v>
       </c>
       <c r="S354">
-        <v>1.76676975999983</v>
+        <v>3.014327828852076</v>
       </c>
       <c r="T354" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -30071,19 +30071,19 @@
         <v>80</v>
       </c>
       <c r="O355">
-        <v>0.158024691358027</v>
+        <v>-6.448592672914262</v>
       </c>
       <c r="P355">
-        <v>1.060061855999898</v>
+        <v>2.852494079950774</v>
       </c>
       <c r="Q355">
         <v>80</v>
       </c>
       <c r="R355">
-        <v>0.0395061728395083</v>
+        <v>-7.836073391068957</v>
       </c>
       <c r="S355">
-        <v>0.7067079039999359</v>
+        <v>3.693716080865406</v>
       </c>
       <c r="T355" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -30171,19 +30171,19 @@
         <v>9</v>
       </c>
       <c r="O356">
-        <v>0.3878667628667628</v>
+        <v>-0.4562880805749543</v>
       </c>
       <c r="P356">
-        <v>0.3184345579963415</v>
+        <v>1.199379927594301</v>
       </c>
       <c r="Q356">
         <v>6</v>
       </c>
       <c r="R356">
-        <v>0.5570175438596491</v>
+        <v>0.2290665696173317</v>
       </c>
       <c r="S356">
-        <v>0.4487375761818493</v>
+        <v>1.34586256404348</v>
       </c>
       <c r="T356" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -30271,19 +30271,19 @@
         <v>9</v>
       </c>
       <c r="O357">
-        <v>0.4552910052910052</v>
+        <v>-0.1793149108162501</v>
       </c>
       <c r="P357">
-        <v>0.2719235716582534</v>
+        <v>1.19327372312789</v>
       </c>
       <c r="Q357">
         <v>6</v>
       </c>
       <c r="R357">
-        <v>0.4535714285714285</v>
+        <v>-0.1862508349338444</v>
       </c>
       <c r="S357">
-        <v>0.329617898761086</v>
+        <v>1.224153516258459</v>
       </c>
       <c r="T357" t="inlineStr">
         <is>
@@ -30371,19 +30371,19 @@
         <v>21</v>
       </c>
       <c r="O358">
-        <v>28.83720930232559</v>
+        <v>-0.9033035363473436</v>
       </c>
       <c r="P358">
-        <v>25.57716666952101</v>
+        <v>4.762821374630572</v>
       </c>
       <c r="Q358">
         <v>21</v>
       </c>
       <c r="R358">
-        <v>76.27906976744184</v>
+        <v>1.168040795099872</v>
       </c>
       <c r="S358">
-        <v>34.10288889269481</v>
+        <v>3.904685213771925</v>
       </c>
       <c r="T358" t="inlineStr">
         <is>
@@ -30471,19 +30471,19 @@
         <v>21</v>
       </c>
       <c r="O359">
-        <v>21.3953488372093</v>
+        <v>-1.301257318433978</v>
       </c>
       <c r="P359">
-        <v>29.84002778110785</v>
+        <v>6.451015921874777</v>
       </c>
       <c r="Q359">
         <v>21</v>
       </c>
       <c r="R359">
-        <v>54.8837209302326</v>
+        <v>0.1959736459622833</v>
       </c>
       <c r="S359">
-        <v>29.84002778110772</v>
+        <v>4.027847364175314</v>
       </c>
       <c r="T359" t="inlineStr">
         <is>
@@ -30571,19 +30571,19 @@
         <v>21</v>
       </c>
       <c r="O360">
-        <v>11.16279069767441</v>
+        <v>-2.074219597698685</v>
       </c>
       <c r="P360">
-        <v>21.31430555793424</v>
+        <v>6.378838790920535</v>
       </c>
       <c r="Q360">
         <v>21</v>
       </c>
       <c r="R360">
-        <v>24.18604651162792</v>
+        <v>-1.142506482225334</v>
       </c>
       <c r="S360">
-        <v>17.05144444634728</v>
+        <v>3.466951755265721</v>
       </c>
       <c r="T360" t="inlineStr">
         <is>
@@ -30671,19 +30671,19 @@
         <v>60</v>
       </c>
       <c r="O361">
-        <v>0.7368421052631566</v>
+        <v>-4.903156133578146</v>
       </c>
       <c r="P361">
-        <v>2.446094744973099</v>
+        <v>3.21063537944726</v>
       </c>
       <c r="Q361">
         <v>30</v>
       </c>
       <c r="R361">
-        <v>3.684210526315788</v>
+        <v>-3.263576003786108</v>
       </c>
       <c r="S361">
-        <v>16.14340169488912</v>
+        <v>8.405790216778739</v>
       </c>
       <c r="T361" t="inlineStr">
         <is>
@@ -30771,19 +30771,19 @@
         <v>21</v>
       </c>
       <c r="O362">
-        <v>0.161616161616164</v>
+        <v>-6.426083844868705</v>
       </c>
       <c r="P362">
-        <v>2.221854882402833</v>
+        <v>5.618921148248258</v>
       </c>
       <c r="Q362">
         <v>21</v>
       </c>
       <c r="R362">
-        <v>2.909090909090912</v>
+        <v>-3.507807116720413</v>
       </c>
       <c r="S362">
-        <v>11.10927441201417</v>
+        <v>6.503095004617561</v>
       </c>
       <c r="T362" t="inlineStr">
         <is>
@@ -30871,19 +30871,19 @@
         <v>21</v>
       </c>
       <c r="O363">
-        <v>1.862745098039214</v>
+        <v>-3.964315800148781</v>
       </c>
       <c r="P363">
-        <v>2.246360634782274</v>
+        <v>1.517923057297206</v>
       </c>
       <c r="Q363">
         <v>21</v>
       </c>
       <c r="R363">
-        <v>3.43137254901961</v>
+        <v>-3.337293579682675</v>
       </c>
       <c r="S363">
-        <v>10.33325891999846</v>
+        <v>5.569994053492359</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -30971,19 +30971,19 @@
         <v>60</v>
       </c>
       <c r="O364">
-        <v>2.31578947368421</v>
+        <v>-3.741989279427885</v>
       </c>
       <c r="P364">
-        <v>4.892189489946226</v>
+        <v>3.178949807791684</v>
       </c>
       <c r="Q364">
         <v>30</v>
       </c>
       <c r="R364">
-        <v>3.368421052631581</v>
+        <v>-3.356461487820763</v>
       </c>
       <c r="S364">
-        <v>10.37790108957155</v>
+        <v>5.645974754702715</v>
       </c>
       <c r="T364" t="inlineStr">
         <is>
@@ -31071,19 +31071,19 @@
         <v>60</v>
       </c>
       <c r="O365">
-        <v>0.7368421052631566</v>
+        <v>-4.903156133578146</v>
       </c>
       <c r="P365">
-        <v>2.446094744973099</v>
+        <v>3.21063537944726</v>
       </c>
       <c r="Q365">
         <v>30</v>
       </c>
       <c r="R365">
-        <v>1.263157894736842</v>
+        <v>-4.358843299218225</v>
       </c>
       <c r="S365">
-        <v>3.459300363190533</v>
+        <v>2.791883672914134</v>
       </c>
       <c r="T365" t="inlineStr">
         <is>
@@ -31171,19 +31171,19 @@
         <v>60</v>
       </c>
       <c r="O366">
-        <v>1.666666666666667</v>
+        <v>-4.077537443905719</v>
       </c>
       <c r="P366">
-        <v>1.5188169985127</v>
+        <v>0.9064121827196918</v>
       </c>
       <c r="Q366">
         <v>30</v>
       </c>
       <c r="R366">
-        <v>0.7843137254901951</v>
+        <v>-4.840242308167577</v>
       </c>
       <c r="S366">
-        <v>2.147931598059477</v>
+        <v>2.912173507807884</v>
       </c>
       <c r="T366" t="inlineStr">
         <is>
@@ -31271,19 +31271,19 @@
         <v>21</v>
       </c>
       <c r="O367">
-        <v>0.1960784313725465</v>
+        <v>-6.232448016550536</v>
       </c>
       <c r="P367">
-        <v>1.347816380869376</v>
+        <v>3.210091881667977</v>
       </c>
       <c r="Q367">
         <v>21</v>
       </c>
       <c r="R367">
-        <v>0.8823529411764701</v>
+        <v>-4.721470641684252</v>
       </c>
       <c r="S367">
-        <v>0.4492721269564451</v>
+        <v>2.178160501417334</v>
       </c>
       <c r="T367" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -31371,19 +31371,19 @@
         <v>4</v>
       </c>
       <c r="O368">
-        <v>25.1865671641791</v>
+        <v>-1.08868664886814</v>
       </c>
       <c r="P368">
-        <v>16.04477611940298</v>
+        <v>3.196801177118938</v>
       </c>
       <c r="Q368">
         <v>4</v>
       </c>
       <c r="R368">
-        <v>17.16417910447761</v>
+        <v>-1.574035985383184</v>
       </c>
       <c r="S368">
-        <v>13.80597014925374</v>
+        <v>3.331875776036898</v>
       </c>
       <c r="T368" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -31471,19 +31471,19 @@
         <v>4</v>
       </c>
       <c r="O369">
-        <v>16.63424124513618</v>
+        <v>-1.61177436209512</v>
       </c>
       <c r="P369">
-        <v>13.61867704280156</v>
+        <v>3.338587562523819</v>
       </c>
       <c r="Q369">
         <v>4</v>
       </c>
       <c r="R369">
-        <v>23.63813229571983</v>
+        <v>-1.172622274441861</v>
       </c>
       <c r="S369">
-        <v>8.171206225680933</v>
+        <v>1.680125476299593</v>
       </c>
       <c r="T369" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -31571,19 +31571,19 @@
         <v>4</v>
       </c>
       <c r="O370">
-        <v>14.36567164179104</v>
+        <v>-1.785244788206861</v>
       </c>
       <c r="P370">
-        <v>11.19402985074627</v>
+        <v>2.952583862034795</v>
       </c>
       <c r="Q370">
         <v>4</v>
       </c>
       <c r="R370">
-        <v>10.26119402985074</v>
+        <v>-2.168534084873291</v>
       </c>
       <c r="S370">
-        <v>6.343283582089554</v>
+        <v>1.977805380799645</v>
       </c>
       <c r="T370" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -31671,19 +31671,19 @@
         <v>4</v>
       </c>
       <c r="O371">
-        <v>14.29961089494163</v>
+        <v>-1.790625039157444</v>
       </c>
       <c r="P371">
-        <v>12.45136186770428</v>
+        <v>3.291973216075385</v>
       </c>
       <c r="Q371">
         <v>4</v>
       </c>
       <c r="R371">
-        <v>8.073929961089483</v>
+        <v>-2.432344319697146</v>
       </c>
       <c r="S371">
-        <v>5.836575875486382</v>
+        <v>2.050276157984668</v>
       </c>
       <c r="T371" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -31771,19 +31771,19 @@
         <v>4</v>
       </c>
       <c r="O372">
-        <v>5.375494071146257</v>
+        <v>-2.868066000381864</v>
       </c>
       <c r="P372">
-        <v>2.529644268774704</v>
+        <v>1.074510733986466</v>
       </c>
       <c r="Q372">
         <v>4</v>
       </c>
       <c r="R372">
-        <v>12.64822134387352</v>
+        <v>-1.932426798718026</v>
       </c>
       <c r="S372">
-        <v>8.22134387351781</v>
+        <v>2.310321042542197</v>
       </c>
       <c r="T372" t="inlineStr">
         <is>
@@ -31825,7 +31825,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -31871,19 +31871,19 @@
         <v>4</v>
       </c>
       <c r="O373">
-        <v>53.25443786982249</v>
+        <v>0.1303618178632438</v>
       </c>
       <c r="P373">
-        <v>18.5404339250493</v>
+        <v>2.540563915266971</v>
       </c>
       <c r="Q373">
         <v>4</v>
       </c>
       <c r="R373">
-        <v>49.30966469428007</v>
+        <v>-0.02761516703297349</v>
       </c>
       <c r="S373">
-        <v>16.5680473372781</v>
+        <v>2.359333053578049</v>
       </c>
       <c r="T373" t="inlineStr">
         <is>
@@ -31925,7 +31925,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Ungulates, hares</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -31971,19 +31971,19 @@
         <v>4</v>
       </c>
       <c r="O374">
-        <v>65.68047337278107</v>
+        <v>0.6490871907659149</v>
       </c>
       <c r="P374">
-        <v>7.100591715976322</v>
+        <v>0.8760135133843411</v>
       </c>
       <c r="Q374">
         <v>4</v>
       </c>
       <c r="R374">
-        <v>74.95069033530572</v>
+        <v>1.095984166261841</v>
       </c>
       <c r="S374">
-        <v>5.917159763313578</v>
+        <v>0.6833492140727586</v>
       </c>
       <c r="T374" t="inlineStr">
         <is>
@@ -32025,7 +32025,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -32071,19 +32071,19 @@
         <v>40</v>
       </c>
       <c r="O375">
-        <v>81.09999999999999</v>
+        <v>1.45652103905577</v>
       </c>
       <c r="P375">
-        <v>27.6</v>
+        <v>3.064750605207204</v>
       </c>
       <c r="Q375">
         <v>40</v>
       </c>
       <c r="R375">
-        <v>31.1</v>
+        <v>-0.7954483588344246</v>
       </c>
       <c r="S375">
-        <v>31.1</v>
+        <v>5.576644603012324</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -32125,7 +32125,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -32171,19 +32171,19 @@
         <v>40</v>
       </c>
       <c r="O376">
-        <v>54.8</v>
+        <v>0.1925931071157841</v>
       </c>
       <c r="P376">
-        <v>21.3</v>
+        <v>2.877269798214872</v>
       </c>
       <c r="Q376">
         <v>40</v>
       </c>
       <c r="R376">
-        <v>24.1</v>
+        <v>-1.147204843904975</v>
       </c>
       <c r="S376">
-        <v>17.9</v>
+        <v>3.645997263296839</v>
       </c>
       <c r="T376" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -32271,19 +32271,19 @@
         <v>20</v>
       </c>
       <c r="O377">
-        <v>19.7</v>
+        <v>-1.405150985208773</v>
       </c>
       <c r="P377">
-        <v>16.8</v>
+        <v>3.784748363465798</v>
       </c>
       <c r="Q377">
         <v>20</v>
       </c>
       <c r="R377">
-        <v>13.6</v>
+        <v>-1.848917883068004</v>
       </c>
       <c r="S377">
-        <v>6.7</v>
+        <v>1.815295934490455</v>
       </c>
       <c r="T377" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -32371,19 +32371,19 @@
         <v>40</v>
       </c>
       <c r="O378">
-        <v>35.8</v>
+        <v>-0.584055317289261</v>
       </c>
       <c r="P378">
-        <v>18.6</v>
+        <v>3.108521560367207</v>
       </c>
       <c r="Q378">
         <v>40</v>
       </c>
       <c r="R378">
-        <v>13.5</v>
+        <v>-1.85745472849345</v>
       </c>
       <c r="S378">
-        <v>9.300000000000001</v>
+        <v>2.530049293054852</v>
       </c>
       <c r="T378" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -32471,19 +32471,19 @@
         <v>20</v>
       </c>
       <c r="O379">
-        <v>23.7</v>
+        <v>-1.169197890149326</v>
       </c>
       <c r="P379">
-        <v>16</v>
+        <v>3.286320776639854</v>
       </c>
       <c r="Q379">
         <v>20</v>
       </c>
       <c r="R379">
-        <v>26.6</v>
+        <v>-1.015012719832816</v>
       </c>
       <c r="S379">
-        <v>11.6</v>
+        <v>2.248828874896962</v>
       </c>
       <c r="T379" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -32571,19 +32571,19 @@
         <v>40</v>
       </c>
       <c r="O380">
-        <v>22.8</v>
+        <v>-1.219638921070335</v>
       </c>
       <c r="P380">
-        <v>9.1</v>
+        <v>1.905279550985755</v>
       </c>
       <c r="Q380">
         <v>40</v>
       </c>
       <c r="R380">
-        <v>8</v>
+        <v>-2.442347035369204</v>
       </c>
       <c r="S380">
-        <v>3.2</v>
+        <v>1.124334018042229</v>
       </c>
       <c r="T380" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -32671,19 +32671,19 @@
         <v>20</v>
       </c>
       <c r="O381">
-        <v>8.4</v>
+        <v>-2.389199565830816</v>
       </c>
       <c r="P381">
-        <v>10.3</v>
+        <v>3.551814441458906</v>
       </c>
       <c r="Q381">
         <v>20</v>
       </c>
       <c r="R381">
-        <v>3</v>
+        <v>-3.476098689835273</v>
       </c>
       <c r="S381">
-        <v>3.4</v>
+        <v>1.930889259728101</v>
       </c>
       <c r="T381" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -32771,19 +32771,19 @@
         <v>60</v>
       </c>
       <c r="O382">
-        <v>0.3</v>
+        <v>-5.806138481293728</v>
       </c>
       <c r="P382">
-        <v>2.32379000772445</v>
+        <v>4.370228952686701</v>
       </c>
       <c r="Q382">
         <v>60</v>
       </c>
       <c r="R382">
-        <v>2</v>
+        <v>-3.891820298110626</v>
       </c>
       <c r="S382">
-        <v>13.9427400463467</v>
+        <v>9.842086499653753</v>
       </c>
       <c r="T382" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -32871,19 +32871,19 @@
         <v>60</v>
       </c>
       <c r="O383">
-        <v>0.4</v>
+        <v>-5.517452896464707</v>
       </c>
       <c r="P383">
-        <v>3.098386676965934</v>
+        <v>5.019011475427825</v>
       </c>
       <c r="Q383">
         <v>60</v>
       </c>
       <c r="R383">
-        <v>0.2</v>
+        <v>-6.212606095751519</v>
       </c>
       <c r="S383">
-        <v>1.549193338482967</v>
+        <v>3.611324780003409</v>
       </c>
       <c r="T383" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Genetic resistance</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -32971,19 +32971,19 @@
         <v>96</v>
       </c>
       <c r="O384">
-        <v>21.41711229946524</v>
+        <v>-1.299963719350558</v>
       </c>
       <c r="P384">
-        <v>9.431190453496713</v>
+        <v>2.037378837188891</v>
       </c>
       <c r="Q384">
         <v>96</v>
       </c>
       <c r="R384">
-        <v>10.3475935828877</v>
+        <v>-2.159186053436447</v>
       </c>
       <c r="S384">
-        <v>21.22017852036762</v>
+        <v>6.596025166985716</v>
       </c>
       <c r="T384" t="inlineStr">
         <is>
@@ -33015,7 +33015,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Genetic resistance</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -33071,19 +33071,19 @@
         <v>96</v>
       </c>
       <c r="O385">
-        <v>14.67914438502674</v>
+        <v>-1.759991184768713</v>
       </c>
       <c r="P385">
-        <v>20.04127971368056</v>
+        <v>5.230438179746575</v>
       </c>
       <c r="Q385">
         <v>96</v>
       </c>
       <c r="R385">
-        <v>13.11497326203209</v>
+        <v>-1.890831138328986</v>
       </c>
       <c r="S385">
-        <v>20.04127971368056</v>
+        <v>5.533504621920104</v>
       </c>
       <c r="T385" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Genetic resistance</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -33171,19 +33171,19 @@
         <v>96</v>
       </c>
       <c r="O386">
-        <v>27.43315508021391</v>
+        <v>-0.9727558146640993</v>
       </c>
       <c r="P386">
-        <v>29.47247016717727</v>
+        <v>5.626904346323802</v>
       </c>
       <c r="Q386">
         <v>96</v>
       </c>
       <c r="R386">
-        <v>18.8903743315508</v>
+        <v>-1.457149145257771</v>
       </c>
       <c r="S386">
-        <v>15.32568448693217</v>
+        <v>3.52574187856941</v>
       </c>
       <c r="T386" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -33271,19 +33271,19 @@
         <v>90</v>
       </c>
       <c r="O387">
-        <v>10</v>
+        <v>-2.197224577336219</v>
       </c>
       <c r="P387">
-        <v>3.3</v>
+        <v>1.038700625733416</v>
       </c>
       <c r="Q387">
         <v>90</v>
       </c>
       <c r="R387">
-        <v>12.1</v>
+        <v>-1.982994352088436</v>
       </c>
       <c r="S387">
-        <v>10.3</v>
+        <v>2.959880316655993</v>
       </c>
       <c r="T387" t="inlineStr">
         <is>
@@ -33371,19 +33371,19 @@
         <v>3</v>
       </c>
       <c r="O388">
-        <v>10</v>
+        <v>-2.197224577336219</v>
       </c>
       <c r="P388">
-        <v>11</v>
+        <v>3.477053204927844</v>
       </c>
       <c r="Q388">
         <v>3</v>
       </c>
       <c r="R388">
-        <v>54</v>
+        <v>0.1603426500751795</v>
       </c>
       <c r="S388">
-        <v>8</v>
+        <v>1.088504539270252</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
@@ -33471,19 +33471,19 @@
         <v>3</v>
       </c>
       <c r="O389">
-        <v>8</v>
+        <v>-2.442347035369204</v>
       </c>
       <c r="P389">
-        <v>14</v>
+        <v>4.948143791779598</v>
       </c>
       <c r="Q389">
         <v>3</v>
       </c>
       <c r="R389">
-        <v>72</v>
+        <v>0.9444616088408513</v>
       </c>
       <c r="S389">
-        <v>10</v>
+        <v>1.178429442281656</v>
       </c>
       <c r="T389" t="inlineStr">
         <is>
@@ -33571,19 +33571,19 @@
         <v>3</v>
       </c>
       <c r="O390">
-        <v>7</v>
+        <v>-2.586689344097942</v>
       </c>
       <c r="P390">
-        <v>11</v>
+        <v>4.155103001416566</v>
       </c>
       <c r="Q390">
         <v>3</v>
       </c>
       <c r="R390">
-        <v>70</v>
+        <v>0.8472978603872034</v>
       </c>
       <c r="S390">
-        <v>14</v>
+        <v>1.673259058457337</v>
       </c>
       <c r="T390" t="inlineStr">
         <is>
@@ -33671,19 +33671,19 @@
         <v>3</v>
       </c>
       <c r="O391">
-        <v>6</v>
+        <v>-2.751535313041949</v>
       </c>
       <c r="P391">
-        <v>11</v>
+        <v>4.487548912056027</v>
       </c>
       <c r="Q391">
         <v>3</v>
       </c>
       <c r="R391">
-        <v>74</v>
+        <v>1.045968555182688</v>
       </c>
       <c r="S391">
-        <v>10</v>
+        <v>1.162397824735372</v>
       </c>
       <c r="T391" t="inlineStr">
         <is>
@@ -33771,19 +33771,19 @@
         <v>3</v>
       </c>
       <c r="O392">
-        <v>6</v>
+        <v>-2.751535313041949</v>
       </c>
       <c r="P392">
-        <v>5</v>
+        <v>2.034230871384867</v>
       </c>
       <c r="Q392">
         <v>3</v>
       </c>
       <c r="R392">
-        <v>42</v>
+        <v>-0.3227733922630512</v>
       </c>
       <c r="S392">
-        <v>20</v>
+        <v>3.085975098544226</v>
       </c>
       <c r="T392" t="inlineStr">
         <is>
@@ -33871,19 +33871,19 @@
         <v>3</v>
       </c>
       <c r="O393">
-        <v>5</v>
+        <v>-2.94443897916644</v>
       </c>
       <c r="P393">
-        <v>6</v>
+        <v>2.675506182637845</v>
       </c>
       <c r="Q393">
         <v>3</v>
       </c>
       <c r="R393">
-        <v>69</v>
+        <v>0.8001193001121129</v>
       </c>
       <c r="S393">
-        <v>6</v>
+        <v>0.7221696797852768</v>
       </c>
       <c r="T393" t="inlineStr">
         <is>
@@ -33971,19 +33971,19 @@
         <v>3</v>
       </c>
       <c r="O394">
-        <v>5</v>
+        <v>-2.94443897916644</v>
       </c>
       <c r="P394">
-        <v>6</v>
+        <v>2.675506182637845</v>
       </c>
       <c r="Q394">
         <v>3</v>
       </c>
       <c r="R394">
-        <v>26</v>
+        <v>-1.045968555182688</v>
       </c>
       <c r="S394">
-        <v>15</v>
+        <v>2.941490212862296</v>
       </c>
       <c r="T394" t="inlineStr">
         <is>
@@ -34071,19 +34071,19 @@
         <v>3</v>
       </c>
       <c r="O395">
-        <v>4</v>
+        <v>-3.178053830347945</v>
       </c>
       <c r="P395">
-        <v>4</v>
+        <v>1.983263304085802</v>
       </c>
       <c r="Q395">
         <v>3</v>
       </c>
       <c r="R395">
-        <v>65</v>
+        <v>0.6190392084062236</v>
       </c>
       <c r="S395">
-        <v>2</v>
+        <v>0.2475918397569256</v>
       </c>
       <c r="T395" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -34171,19 +34171,19 @@
         <v>9</v>
       </c>
       <c r="O396">
-        <v>0.3878667628667628</v>
+        <v>-0.4562880805749543</v>
       </c>
       <c r="P396">
-        <v>0.3184345579963415</v>
+        <v>1.199379927594301</v>
       </c>
       <c r="Q396">
         <v>9</v>
       </c>
       <c r="R396">
-        <v>0.522584238373712</v>
+        <v>0.09039846369658189</v>
       </c>
       <c r="S396">
-        <v>0.3759720212726457</v>
+        <v>1.283037971400663</v>
       </c>
       <c r="T396" t="inlineStr">
         <is>
@@ -34225,7 +34225,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Deer, pigs</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -34271,19 +34271,19 @@
         <v>9</v>
       </c>
       <c r="O397">
-        <v>0.4552910052910052</v>
+        <v>-0.1793149108162501</v>
       </c>
       <c r="P397">
-        <v>0.2719235716582534</v>
+        <v>1.19327372312789</v>
       </c>
       <c r="Q397">
         <v>9</v>
       </c>
       <c r="R397">
-        <v>0.2195767195767196</v>
+        <v>-1.268134748543222</v>
       </c>
       <c r="S397">
-        <v>0.2766872015619596</v>
+        <v>1.1829235072414</v>
       </c>
       <c r="T397" t="inlineStr">
         <is>
@@ -34371,19 +34371,19 @@
         <v>18</v>
       </c>
       <c r="O398">
-        <v>36.1</v>
+        <v>-0.5710264960446539</v>
       </c>
       <c r="P398">
-        <v>44.12346314604056</v>
+        <v>7.343665704572951</v>
       </c>
       <c r="Q398">
         <v>18</v>
       </c>
       <c r="R398">
-        <v>49.1</v>
+        <v>-0.03600388875600218</v>
       </c>
       <c r="S398">
-        <v>44.54772721475249</v>
+        <v>6.357444479071306</v>
       </c>
       <c r="T398" t="inlineStr">
         <is>
@@ -34471,19 +34471,19 @@
         <v>18</v>
       </c>
       <c r="O399">
-        <v>25</v>
+        <v>-1.09861228866811</v>
       </c>
       <c r="P399">
-        <v>31.39554108468271</v>
+        <v>6.278980604835265</v>
       </c>
       <c r="Q399">
         <v>18</v>
       </c>
       <c r="R399">
-        <v>33.3</v>
+        <v>-0.6946475559351801</v>
       </c>
       <c r="S399">
-        <v>36.91097397793777</v>
+        <v>6.396296654848626</v>
       </c>
       <c r="T399" t="inlineStr">
         <is>
@@ -34571,19 +34571,19 @@
         <v>18</v>
       </c>
       <c r="O400">
-        <v>44.7</v>
+        <v>-0.2127994069087659</v>
       </c>
       <c r="P400">
-        <v>34.78965363437813</v>
+        <v>5.203461284429244</v>
       </c>
       <c r="Q400">
         <v>18</v>
       </c>
       <c r="R400">
-        <v>74.90000000000001</v>
+        <v>1.093286044385436</v>
       </c>
       <c r="S400">
-        <v>35.21391770309007</v>
+        <v>4.068844547009425</v>
       </c>
       <c r="T400" t="inlineStr">
         <is>
@@ -34671,19 +34671,19 @@
         <v>18</v>
       </c>
       <c r="O401">
-        <v>13.8</v>
+        <v>-1.832001585506488</v>
       </c>
       <c r="P401">
-        <v>16.12203461105328</v>
+        <v>4.339297626630309</v>
       </c>
       <c r="Q401">
         <v>18</v>
       </c>
       <c r="R401">
-        <v>6.1</v>
+        <v>-2.733941615034952</v>
       </c>
       <c r="S401">
-        <v>11.45512985522207</v>
+        <v>4.635068362965217</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -34771,19 +34771,19 @@
         <v>18</v>
       </c>
       <c r="O402">
-        <v>74.09999999999999</v>
+        <v>1.051172563596549</v>
       </c>
       <c r="P402">
-        <v>30.97127701597078</v>
+        <v>3.597882309857907</v>
       </c>
       <c r="Q402">
         <v>18</v>
       </c>
       <c r="R402">
-        <v>35.2</v>
+        <v>-0.6102595207541774</v>
       </c>
       <c r="S402">
-        <v>35.638181771802</v>
+        <v>6.006747077534843</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -34871,19 +34871,19 @@
         <v>18</v>
       </c>
       <c r="O403">
-        <v>31.4</v>
+        <v>-0.7814846418176318</v>
       </c>
       <c r="P403">
-        <v>40.72935059634514</v>
+        <v>7.268394456738848</v>
       </c>
       <c r="Q403">
         <v>18</v>
       </c>
       <c r="R403">
-        <v>12</v>
+        <v>-1.992430164690206</v>
       </c>
       <c r="S403">
-        <v>31.39554108468271</v>
+        <v>9.062726245065939</v>
       </c>
       <c r="T403" t="inlineStr">
         <is>
@@ -34971,19 +34971,19 @@
         <v>18</v>
       </c>
       <c r="O404">
-        <v>8.5</v>
+        <v>-2.376272808785205</v>
       </c>
       <c r="P404">
-        <v>18.66761902332485</v>
+        <v>6.401844419470394</v>
       </c>
       <c r="Q404">
         <v>18</v>
       </c>
       <c r="R404">
-        <v>8.699999999999999</v>
+        <v>-2.350827761940385</v>
       </c>
       <c r="S404">
-        <v>31.39554108468271</v>
+        <v>10.64345634890074</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
@@ -35071,19 +35071,19 @@
         <v>18</v>
       </c>
       <c r="O405">
-        <v>22</v>
+        <v>-1.265666373331276</v>
       </c>
       <c r="P405">
-        <v>29.27422074112307</v>
+        <v>6.241118967802298</v>
       </c>
       <c r="Q405">
         <v>18</v>
       </c>
       <c r="R405">
-        <v>49.2</v>
+        <v>-0.03200273108617372</v>
       </c>
       <c r="S405">
-        <v>25.88010819142763</v>
+        <v>3.689580104771474</v>
       </c>
       <c r="T405" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -35202,7 +35202,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -35279,7 +35279,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -35356,7 +35356,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -35433,7 +35433,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -35510,7 +35510,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -35587,7 +35587,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -35664,7 +35664,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -35741,7 +35741,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -35818,7 +35818,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -35895,7 +35895,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -35972,7 +35972,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -36049,7 +36049,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -36126,7 +36126,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -36203,7 +36203,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -36280,7 +36280,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -36357,7 +36357,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -36434,7 +36434,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -36742,7 +36742,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -36819,7 +36819,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -36896,7 +36896,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -36973,7 +36973,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -37502,7 +37502,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -37512,7 +37512,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -37579,7 +37579,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -37589,7 +37589,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -37656,7 +37656,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -37666,7 +37666,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -37743,7 +37743,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -38195,7 +38195,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -38205,7 +38205,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -38272,7 +38272,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -38282,7 +38282,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -38349,7 +38349,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -38359,7 +38359,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -38426,7 +38426,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -38436,7 +38436,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -38503,7 +38503,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -38513,7 +38513,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -38580,7 +38580,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -38590,7 +38590,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -38657,7 +38657,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -38667,7 +38667,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -38734,7 +38734,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -38744,7 +38744,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -38811,7 +38811,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -38821,7 +38821,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -38888,7 +38888,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -38898,7 +38898,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -38965,7 +38965,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -38975,7 +38975,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -39042,7 +39042,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -39052,7 +39052,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -39119,7 +39119,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -39129,7 +39129,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -39196,7 +39196,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -39206,7 +39206,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -39273,7 +39273,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -39283,7 +39283,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -39350,7 +39350,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -39360,7 +39360,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -39427,7 +39427,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -39504,7 +39504,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -39514,7 +39514,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -39581,7 +39581,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -39591,7 +39591,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -39658,7 +39658,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -39668,7 +39668,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -39735,7 +39735,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -39745,7 +39745,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -39812,7 +39812,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -39822,7 +39822,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -39889,7 +39889,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -39899,7 +39899,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -39966,7 +39966,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -39976,7 +39976,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -40043,7 +40043,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -40053,7 +40053,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -40120,7 +40120,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -40130,7 +40130,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -40197,7 +40197,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -40274,7 +40274,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -40351,7 +40351,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -40428,7 +40428,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -40505,7 +40505,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -40582,7 +40582,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -40659,7 +40659,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -40736,7 +40736,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -40813,7 +40813,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -40890,7 +40890,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -40967,7 +40967,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -41044,7 +41044,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -41121,7 +41121,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -41198,7 +41198,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -41275,7 +41275,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -41352,7 +41352,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -41429,7 +41429,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -41506,7 +41506,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -41583,7 +41583,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -41660,7 +41660,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -41737,7 +41737,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -41814,7 +41814,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -41891,7 +41891,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -41968,7 +41968,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -42045,7 +42045,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -42122,7 +42122,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -42199,7 +42199,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -42276,7 +42276,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -42353,7 +42353,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -42430,7 +42430,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -42507,7 +42507,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -42584,7 +42584,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -42661,7 +42661,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -42738,7 +42738,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -42815,7 +42815,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -42892,7 +42892,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -42969,7 +42969,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -43046,7 +43046,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -43123,7 +43123,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -43200,7 +43200,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -43277,7 +43277,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -43354,7 +43354,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -43431,7 +43431,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -43508,7 +43508,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -43585,7 +43585,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -43662,7 +43662,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -43739,7 +43739,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -43816,7 +43816,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -43893,7 +43893,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -43970,7 +43970,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -44047,7 +44047,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -44057,7 +44057,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -44124,7 +44124,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -44134,7 +44134,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -44201,7 +44201,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -44211,7 +44211,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -44278,7 +44278,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -44288,7 +44288,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -44355,7 +44355,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -44432,7 +44432,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -44509,7 +44509,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -44586,7 +44586,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -44663,7 +44663,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -44740,7 +44740,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -44817,7 +44817,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -44894,7 +44894,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -44971,7 +44971,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -45048,7 +45048,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -45125,7 +45125,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -45202,7 +45202,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -45279,7 +45279,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -45356,7 +45356,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -45433,7 +45433,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -45510,7 +45510,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -45587,7 +45587,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -45664,7 +45664,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -45741,7 +45741,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -45818,7 +45818,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -45895,7 +45895,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -45972,7 +45972,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -46049,7 +46049,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -46126,7 +46126,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -46203,7 +46203,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -46280,7 +46280,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -46357,7 +46357,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -46434,7 +46434,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -46511,7 +46511,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -46588,7 +46588,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -46665,7 +46665,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -46742,7 +46742,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -46819,7 +46819,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -46896,7 +46896,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -46973,7 +46973,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -47050,7 +47050,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -47127,7 +47127,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -47204,7 +47204,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -47281,7 +47281,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -47358,7 +47358,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -47435,7 +47435,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -47512,7 +47512,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -47589,7 +47589,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -47666,7 +47666,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -47743,7 +47743,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -47820,7 +47820,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -47897,7 +47897,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -47974,7 +47974,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -48051,7 +48051,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -48128,7 +48128,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -48205,7 +48205,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -48282,7 +48282,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -48359,7 +48359,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -48436,7 +48436,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -48513,7 +48513,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -48590,7 +48590,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -48667,7 +48667,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -48744,7 +48744,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -48821,7 +48821,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -48898,7 +48898,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -48975,7 +48975,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -49052,7 +49052,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -49129,7 +49129,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -49206,7 +49206,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -49283,7 +49283,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -49360,7 +49360,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -49437,7 +49437,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -49514,7 +49514,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -49591,7 +49591,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -49668,7 +49668,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -49745,7 +49745,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -49822,7 +49822,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -49899,7 +49899,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -49976,7 +49976,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -50053,7 +50053,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -50130,7 +50130,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -50207,7 +50207,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -50284,7 +50284,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -50361,7 +50361,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -50438,7 +50438,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -50515,7 +50515,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -50592,7 +50592,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -50669,7 +50669,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -50746,7 +50746,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -50823,7 +50823,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -50900,7 +50900,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -50910,7 +50910,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -50977,7 +50977,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -50987,7 +50987,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -51054,7 +51054,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -51064,7 +51064,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -51131,7 +51131,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -51141,7 +51141,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -51208,7 +51208,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -51218,7 +51218,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -51285,7 +51285,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -51295,7 +51295,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -51362,7 +51362,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -51372,7 +51372,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -51439,7 +51439,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -51449,7 +51449,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -51516,7 +51516,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -51526,7 +51526,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -51593,7 +51593,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -51603,7 +51603,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -51670,7 +51670,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -51680,7 +51680,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -51747,7 +51747,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -51757,7 +51757,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -51824,7 +51824,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -51834,7 +51834,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -51901,7 +51901,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -51911,7 +51911,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -51978,7 +51978,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -51988,7 +51988,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -52055,7 +52055,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -52065,7 +52065,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -52132,7 +52132,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -52142,7 +52142,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -52209,7 +52209,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -52219,7 +52219,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -52286,7 +52286,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -52296,7 +52296,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -52363,7 +52363,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -52373,7 +52373,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -52440,7 +52440,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -52450,7 +52450,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -52517,7 +52517,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -52594,7 +52594,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -52671,7 +52671,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -52748,7 +52748,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -52825,7 +52825,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -52902,7 +52902,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -52979,7 +52979,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -53056,7 +53056,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -53133,7 +53133,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -53210,7 +53210,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -53287,7 +53287,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -53364,7 +53364,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -53441,7 +53441,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -53518,7 +53518,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -53528,7 +53528,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -53595,7 +53595,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -53605,7 +53605,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -53672,7 +53672,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -53682,7 +53682,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -53749,7 +53749,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -53759,7 +53759,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -53826,7 +53826,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -53836,7 +53836,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -53903,7 +53903,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -53913,7 +53913,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -53980,7 +53980,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -53990,7 +53990,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -54057,7 +54057,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -54067,7 +54067,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -54134,7 +54134,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -54144,7 +54144,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
@@ -54211,7 +54211,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -54221,7 +54221,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -54288,7 +54288,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -54298,7 +54298,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -54365,7 +54365,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -54375,7 +54375,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -54442,7 +54442,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -54452,7 +54452,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
@@ -54519,7 +54519,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -54529,7 +54529,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -54596,7 +54596,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -54606,7 +54606,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
@@ -54673,7 +54673,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -54683,7 +54683,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
@@ -54750,7 +54750,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -54760,7 +54760,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -54827,7 +54827,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -54837,7 +54837,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -54904,7 +54904,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -54914,7 +54914,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -54981,7 +54981,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -54991,7 +54991,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -55058,7 +55058,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -55068,7 +55068,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -55135,7 +55135,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -55145,7 +55145,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -55212,7 +55212,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -55222,7 +55222,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -55289,7 +55289,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -55299,7 +55299,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -55366,7 +55366,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -55376,7 +55376,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -55443,7 +55443,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -55453,7 +55453,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -55520,7 +55520,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -55530,7 +55530,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -55597,7 +55597,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -55607,7 +55607,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -55674,7 +55674,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -55684,7 +55684,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
@@ -55751,7 +55751,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -55761,7 +55761,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -55828,7 +55828,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -55838,7 +55838,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -55905,7 +55905,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -55915,7 +55915,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -55982,7 +55982,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -55992,7 +55992,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -56059,7 +56059,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -56069,7 +56069,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -56136,7 +56136,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -56146,7 +56146,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -56213,7 +56213,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -56223,7 +56223,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -56290,7 +56290,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -56300,7 +56300,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -56367,7 +56367,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -56377,7 +56377,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -56444,7 +56444,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -56454,7 +56454,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -56521,7 +56521,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -56531,7 +56531,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -56598,7 +56598,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -56608,7 +56608,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -56675,7 +56675,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -56685,7 +56685,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -56752,7 +56752,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -56762,7 +56762,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -56829,7 +56829,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -56839,7 +56839,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -56906,7 +56906,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -56916,7 +56916,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -56983,7 +56983,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -56993,7 +56993,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -57060,7 +57060,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -57070,7 +57070,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -57137,7 +57137,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -57147,7 +57147,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -57214,7 +57214,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -57224,7 +57224,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -57291,7 +57291,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -57301,7 +57301,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -57368,7 +57368,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -57378,7 +57378,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -57445,7 +57445,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -57455,7 +57455,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -57522,7 +57522,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -57532,7 +57532,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -57599,7 +57599,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -57609,7 +57609,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
@@ -57676,7 +57676,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -57686,7 +57686,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -57753,7 +57753,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -57763,7 +57763,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -57830,7 +57830,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -57840,7 +57840,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
@@ -57907,7 +57907,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -57917,7 +57917,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
@@ -57984,7 +57984,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -57994,7 +57994,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -58061,7 +58061,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -58071,7 +58071,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
@@ -58138,7 +58138,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -58148,7 +58148,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
@@ -58215,7 +58215,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -58292,7 +58292,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -58369,7 +58369,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -58446,7 +58446,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -58523,7 +58523,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -58600,7 +58600,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -58677,7 +58677,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -58754,7 +58754,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -58831,7 +58831,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -58908,7 +58908,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -58985,7 +58985,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -59062,7 +59062,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -59139,7 +59139,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -59216,7 +59216,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -59293,7 +59293,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -59370,7 +59370,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -59447,7 +59447,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -59524,7 +59524,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -59601,7 +59601,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -59678,7 +59678,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -59755,7 +59755,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -59832,7 +59832,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -59909,7 +59909,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -59986,7 +59986,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -60063,7 +60063,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -60140,7 +60140,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -60217,7 +60217,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -60535,7 +60535,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
@@ -60612,7 +60612,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -60689,7 +60689,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -60766,7 +60766,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -60843,7 +60843,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
@@ -60920,7 +60920,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
@@ -60997,7 +60997,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
@@ -61074,7 +61074,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
@@ -61151,7 +61151,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -61228,7 +61228,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
@@ -61305,7 +61305,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -61382,7 +61382,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
@@ -61459,7 +61459,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
@@ -61536,7 +61536,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
@@ -61613,7 +61613,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
@@ -61690,7 +61690,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
@@ -61767,7 +61767,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -61844,7 +61844,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
@@ -61921,7 +61921,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
@@ -61998,7 +61998,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -62075,7 +62075,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
@@ -62152,7 +62152,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
@@ -62229,7 +62229,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -62306,7 +62306,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
@@ -62383,7 +62383,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
@@ -62460,7 +62460,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
@@ -62537,7 +62537,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -62614,7 +62614,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
@@ -62691,7 +62691,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -62768,7 +62768,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -62845,7 +62845,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
@@ -62922,7 +62922,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -62999,7 +62999,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
@@ -63076,7 +63076,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
@@ -63153,7 +63153,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
@@ -63230,7 +63230,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
@@ -63307,7 +63307,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
@@ -63384,7 +63384,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
@@ -63461,7 +63461,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -63538,7 +63538,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">

--- a/Analysis/Comp_comb_coupe.xlsx
+++ b/Analysis/Comp_comb_coupe.xlsx
@@ -31650,7 +31650,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -31753,7 +31753,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -31959,7 +31959,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -32062,7 +32062,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -32165,7 +32165,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
